--- a/biology/Microbiologie/Circulisporites/Circulisporites.xlsx
+++ b/biology/Microbiologie/Circulisporites/Circulisporites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Circulisporites est un genre fossile.
 Pour Paleobiology Database, il s'agit d'un genre d'acritarches, des microfossiles à paroi organique, encore appelés palynomorphes, auxquels il n'est pas possible d'attribuer une affinité biologique avec certitude (on les regroupe dans les Biota incertae sedis).
@@ -513,15 +525,52 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Circulisporites et l'espèce Circulisporites parvus sont décrits par De Jersey en 1962[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Circulisporites et l'espèce Circulisporites parvus sont décrits par De Jersey en 1962.
 La base de données Palynodata[réf. nécessaire], qui répertorie des palynomorphes, ne se prononce pas sur la classification du taxon.
 Pour Interim Register of Marine and Nonmarine Genera (IRMNG), le genre appartient à la famille d'algues vertes des Zygnemataceae (Zygnematales, Zygnematophyceae, Charophyta).
 L'espèce Circulisporites elegans Ou-yang, Yin &amp; Li, 1974, une espèce décrite en Chine, diffère des autres espèces par sa distribution temporelle qui débute bien avant celle des autres espèces, en débutant au Néoprotérozoïque[réf. nécessaire].
 L'espèce type est Circulisporites parvus de Jersey, 1962[réf. nécessaire], qui a été trouvée dans des terrains datant du Trias en Australie[réf. nécessaire].
-Liste des espèces
-Selon Palynodata (site visité le 12 janvier 2023)[réf. nécessaire], le genre comprend les espèces suivantes:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Circulisporites</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Circulisporites</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Palynodata (site visité le 12 janvier 2023)[réf. nécessaire], le genre comprend les espèces suivantes:
 †Circulisporites bianularis (du Permien au Kungurien)
 †Circulisporites calvitium (de l'Artinskien à la fin du Permien)
 †Circulisporites circulus (début du Cénomanien)
